--- a/CarsAdviser/ТЗ, Баг-репорт, Тест-план/Project WA.xlsx
+++ b/CarsAdviser/ТЗ, Баг-репорт, Тест-план/Project WA.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Checklist" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Bugs" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Test Cases" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" name="Google_Sheet_Link_1681389733">Bugs!$A$5</definedName>
@@ -12,18 +13,21 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="4o7ECZSKglFCfltV5/BVISaVkrnAkPBoJWERjEVvFM4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="xAvWK+3waXPj7CN9K0N7VBu+zMbVkaHJkdOH+xFv/gc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="143">
   <si>
     <t>Testrun, v1.1.1</t>
   </si>
   <si>
+    <t>Testrun, v.1.2.1</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -51,6 +55,12 @@
     <t>Не реализовано</t>
   </si>
   <si>
+    <t>Возможность входа через Яндекс.</t>
+  </si>
+  <si>
+    <t>Untested</t>
+  </si>
+  <si>
     <t>Восстановление пароля через SMS.</t>
   </si>
   <si>
@@ -144,6 +154,12 @@
     <t>Наличие и функционирование кнопок удаления на страницах закладок и скрытых объявлений.</t>
   </si>
   <si>
+    <t>Возможность отправить текущую подборку автомобилей пользователю на почту.</t>
+  </si>
+  <si>
+    <t>Возможность создания общей подборки для нескольких пользователей</t>
+  </si>
+  <si>
     <t>Управление профилем</t>
   </si>
   <si>
@@ -228,7 +244,7 @@
     <t>Регистрация не гарантирует, что никто другой не сможет использовать то же самое имя и фамилию с тем же паролем и электронной почтой.</t>
   </si>
   <si>
-    <t>Не исправлено</t>
+    <t>Исправлено</t>
   </si>
   <si>
     <t>Высокий</t>
@@ -291,6 +307,9 @@
     <t>Ограничение выбора диапазона стоимости автомобиля до 5 млн рублей через ползунок.</t>
   </si>
   <si>
+    <t>Не исправлено</t>
+  </si>
+  <si>
     <t>Средний</t>
   </si>
   <si>
@@ -333,13 +352,176 @@
   <si>
     <t xml:space="preserve">
 Windows 10 Home, Visual Studio 2022</t>
+  </si>
+  <si>
+    <t>Неправильная функциональность кнопки "Применить" приводит к неправильному выводу автомобилей</t>
+  </si>
+  <si>
+    <t>При попытке выполнить поиск или фильтрацию автомобилей по названию и цене, система не возвращает ожидаемые результаты. Вместо этого, пользователь сталкиваются с  пустым списком результатов, несмотря на то, что соответствующие автомобили действительно присутствуют в базе данных.</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение.
+2. Перейти на страницу поиска автомобилей.
+3. Ввести марку автомобиля в поле поиска.
+4. Проверить, что система возвращает список автомобилей, соответствующих введенному названию.
+5. Применить фильтр по цене, указав диапазон цен.
+6. Проверить, что система возвращает список автомобилей, соответствующих заданному диапазону цен.</t>
+  </si>
+  <si>
+    <t>Система не возвращает ни одного результата, даже если автомобили, соответствующие критериям поиска и фильтрации, действительно присутствуют в базе данных.</t>
+  </si>
+  <si>
+    <t>Система должна корректно обрабатывать запросы на поиск и фильтрацию автомобилей по названию и цене, возвращая список автомобилей, соответствующих заданным критериям.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 10 Pro, Visual Studio 2022
+</t>
+  </si>
+  <si>
+    <t>v1.2.1(prod)</t>
+  </si>
+  <si>
+    <t>Скриншот
+Скриншот</t>
+  </si>
+  <si>
+    <t>Неправильное позиционирование кнопок при переключении языка на английский</t>
+  </si>
+  <si>
+    <t>При изменении языка интерфейса на английский, расположение кнопок на форме становится некорректным. Беспорядочно перемещаются и переползают друг друга, нарушая логическую структуру и удобство использования интерфейса.</t>
+  </si>
+  <si>
+    <t>Кнопки на форме перестают следовать логической структуре и располагаются неправильно. Например, кнопки могут перемещаться вверх, вниз, слева направо, нарушая привычный порядок и ожидаемое расположение.</t>
+  </si>
+  <si>
+    <t>При переключении языка интерфейса на английский, расположение кнопок должно оставаться неизменным и соответствовать логической структуре формы, обеспечивая удобство и понятность интерфейса для пользователя.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">Скриншот
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Скриншот</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Скриншот</t>
+    </r>
+  </si>
+  <si>
+    <t>Неправильное отображение оповещения</t>
+  </si>
+  <si>
+    <t>При добавлении автомобиля в закладки, система должна автоматически обновлять и отображать актуальное количество сохраненных автомобилей в виде оповещения. Однако, независимо от количества добавленных автомобилей, оповещение всегда показывает значение 0, что запутывает пользователя.</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение.
+2. Найти и выбрать автомобиль, который пользователь хочет добавить в закладки.
+3. Процесс добавления автомобиля в закладки должен быть завершен успешно.
+4. Проверить оповещение или индикатор, отображающий количество автомобилей в закладках.</t>
+  </si>
+  <si>
+    <t>После успешного добавления автомобиля в закладки, оповещение или индикатор продолжает показывать количество автомобилей как 0, несмотря на то, что автомобиль был добавлен.</t>
+  </si>
+  <si>
+    <t>После добавления автомобиля в закладки, система должна корректно обновить и отобразить актуальное количество сохраненных автомобилей в оповещении или индикаторе, обеспечивая точность информации и удобство использования функции закладок.</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя через Яндекс</t>
+  </si>
+  <si>
+    <t>1. Пользователь должен быть 
+зарегистрирован в Яндексе</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Нажать на кнопку Яндекса
+3. Ввести корректные данные
+4. Нажать Войти</t>
+  </si>
+  <si>
+    <t>Пользователь успешно авторизован. Открывается окно с объявлениями машин</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro, Visual Studio 2022</t>
+  </si>
+  <si>
+    <t>Поиск автомобилей по марке и цене</t>
+  </si>
+  <si>
+    <t>1. Войти в аккаунт
+2. Ввести марку автомобиля в поле для поиска (Например, марка "Toyota")
+3. Ввести цену в виде диапазона (Например, от 250000 до 3000000)
+4. Нажать Применить</t>
+  </si>
+  <si>
+    <t>Система возвращает список автомобилей, соответствующих заданным параметрам</t>
+  </si>
+  <si>
+    <t>Добавление автомобиля в закладки</t>
+  </si>
+  <si>
+    <t>1. Войти в аккаунт
+2. Нажать Подробнее у нужного автомобиля
+3. Нажать В закладки</t>
+  </si>
+  <si>
+    <t>Автомобиль добавляется в список закладок пользователя</t>
+  </si>
+  <si>
+    <t>Добавление автомобилей в предпочтения</t>
+  </si>
+  <si>
+    <t>1. Войти в аккаунт
+2. Нажать Аккаунт
+3. Нажать Предпочтения
+4. Поставить галочку рядом с понравившимися автомобилями
+5. Нажать Добавить в предпочтения</t>
+  </si>
+  <si>
+    <t>Автомобиль добавляется в список предпочтений для дальнейшей фильтрации всех автомобилей</t>
+  </si>
+  <si>
+    <t>Отправка текущей подборки автомобилей пользователю на почту</t>
+  </si>
+  <si>
+    <t>1. Войти в аккаунт
+2. Нажать Отправить подборку на почту</t>
+  </si>
+  <si>
+    <t>Система генерирует и отправляет на электронную почту пользователя текущую подборку машин, соответствующих его предпочтениям</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -355,6 +537,11 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -374,10 +561,33 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -407,8 +617,33 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +654,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -446,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left/>
@@ -496,11 +737,7 @@
       </left>
       <right/>
       <top/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <bottom/>
     </border>
     <border>
       <left/>
@@ -508,6 +745,7 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -524,89 +762,209 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="7" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="7" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -631,6 +989,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -844,7 +1206,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="88.43"/>
     <col customWidth="1" min="3" max="3" width="36.14"/>
-    <col customWidth="1" min="4" max="6" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="14.43"/>
+    <col customWidth="1" min="5" max="5" width="36.14"/>
+    <col customWidth="1" min="6" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -853,499 +1217,700 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A6" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" outlineLevel="1">
+      <c r="A16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A34" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1" outlineLevel="1">
-      <c r="A15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="C34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A40" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="C40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="E40" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A35" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A37" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="C41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A38" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="E41" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A45" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="C45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="E45" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="C48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="E48" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
+      <c r="C49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A50" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+    </row>
     <row r="52" ht="14.25" customHeight="1"/>
     <row r="53" ht="14.25" customHeight="1"/>
     <row r="54" ht="14.25" customHeight="1"/>
@@ -1542,9 +2107,9 @@
     <row r="245" ht="14.25" customHeight="1"/>
     <row r="246" ht="14.25" customHeight="1"/>
     <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
     <row r="251" ht="15.75" customHeight="1"/>
     <row r="252" ht="15.75" customHeight="1"/>
     <row r="253" ht="15.75" customHeight="1"/>
@@ -2270,17 +2835,23 @@
     <row r="973" ht="15.75" customHeight="1"/>
     <row r="974" ht="15.75" customHeight="1"/>
     <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="B4:B12 B14:B21 B23:B32 B34:B35 B37:B38 B40:B43 B45:B47">
+    <dataValidation type="list" allowBlank="1" sqref="B4:B13 D4:D13 B15:B22 D15:D22 B24:B35 D24:D35 B37:B38 D37:D38 B40:B41 D40:D41 B43:B46 D43:D46 B48:B50 D48:D50">
       <formula1>"Untested,Passed,Failed,Blocked,Skipped"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="Ссылка на баг" location="Bugs!A2" ref="C8"/>
-    <hyperlink display="Ссылка на баг" location="Bugs!A5" ref="C11"/>
-    <hyperlink display="Ссылка на баг" location="Bugs!A3" ref="C15"/>
-    <hyperlink display="Ссылка на баг" location="Bugs!A4" ref="C24"/>
+    <hyperlink display="Ссылка на баг" location="Bugs!A2" ref="C9"/>
+    <hyperlink display="Ссылка на баг" location="Bugs!A5" ref="C12"/>
+    <hyperlink display="Ссылка на баг" location="Bugs!A7" ref="E13"/>
+    <hyperlink display="Ссылка на баг" location="Bugs!A3" ref="C16"/>
+    <hyperlink display="Ссылка на баг" location="Bugs!A4" ref="C25"/>
+    <hyperlink display="Ссылка на баг" location="Bugs!A4" ref="E25"/>
+    <hyperlink display="Ссылка на баг" location="Bugs!A6" ref="E30"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -2318,201 +2889,301 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="E1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="F1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="G1" s="30" t="s">
         <v>67</v>
       </c>
+      <c r="H1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" outlineLevel="1">
-      <c r="A2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="D2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="E2" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="F2" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="G2" s="35" t="s">
         <v>79</v>
       </c>
+      <c r="H2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" outlineLevel="1">
-      <c r="A3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="A3" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="K3" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="L3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="26" t="s">
+    </row>
+    <row r="4" outlineLevel="1">
+      <c r="A4" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="1">
+      <c r="A5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" ht="153.0" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" outlineLevel="1">
-      <c r="A4" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="1">
-      <c r="A5" s="26" t="s">
+      <c r="E6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" ht="138.75" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" ht="153.75" customHeight="1">
+      <c r="A8" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="C8" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="21"/>
-      <c r="E7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8">
-      <c r="E8" s="30"/>
+      <c r="D8" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9">
-      <c r="L9" s="30"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -3501,13 +4172,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C8">
       <formula1>"Высокий,Средний,Низкий"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B8">
       <formula1>"Исправлено,Не исправлено,На проверке"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D8">
       <formula1>"Блокирующий,Критический,Значительный,Незначительный,Тривиальный"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3516,10 +4187,1142 @@
     <hyperlink r:id="rId2" ref="L3"/>
     <hyperlink r:id="rId3" ref="L4"/>
     <hyperlink r:id="rId4" ref="L5"/>
+    <hyperlink r:id="rId5" ref="L6"/>
+    <hyperlink r:id="rId6" ref="L7"/>
+    <hyperlink r:id="rId7" ref="L8"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.0"/>
+    <col customWidth="1" min="2" max="2" width="29.57"/>
+    <col customWidth="1" min="3" max="3" width="33.71"/>
+    <col customWidth="1" min="4" max="4" width="42.86"/>
+    <col customWidth="1" min="5" max="5" width="25.43"/>
+    <col customWidth="1" min="6" max="6" width="17.43"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" ht="82.5" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" ht="105.75" customHeight="1">
+      <c r="A3" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="55"/>
+    </row>
+    <row r="4" ht="82.5" customHeight="1">
+      <c r="A4" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" ht="82.5" customHeight="1">
+      <c r="A5" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" ht="82.5" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>